--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-007 - Validasi BNIMF.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-007 - Validasi BNIMF.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA6014A-3084-4D96-A37E-D45EC8DA2D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350F85C0-33E0-41DB-8071-29E1E3498F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0176" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0011" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Jl. Pasar Minggu</t>
-  </si>
-  <si>
-    <t>DGS-191</t>
   </si>
   <si>
     <t>Validasi pada tahapan Follow Up menggunakan User Sales yang Kode Outletnya masuk ke dalam mappingan Cabang BNI Multifinance (Kolom Cabang BNI Multifinance tidak kosong pada Parameter Mapping Kode Outlet BNI dengan BNI Multifinance )</t>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>UFT Test Add Leads Prospek BNIMF 70</t>
+  </si>
+  <si>
+    <t>SCD0011-007</t>
   </si>
 </sst>
 </file>
@@ -584,14 +584,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -675,34 +675,34 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="Z1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -710,16 +710,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="F2" s="6">
         <v>22914</v>
@@ -737,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>19</v>
@@ -758,26 +758,26 @@
         <v>26</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
       <c r="Z2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
